--- a/Phân chia công việc - QLBH.xlsx
+++ b/Phân chia công việc - QLBH.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\QLBHSTD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_1\1\Thuc_tap_nhom\Phanmenbanhangsieuthi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -47,27 +47,9 @@
     <t>Xây dựng CSDL, các bảng và dữ liệu</t>
   </si>
   <si>
-    <t>Tú</t>
-  </si>
-  <si>
-    <t>Lập</t>
-  </si>
-  <si>
-    <t>Đức</t>
-  </si>
-  <si>
-    <t>Dũng</t>
-  </si>
-  <si>
     <t>Phát</t>
   </si>
   <si>
-    <t>Tuấn</t>
-  </si>
-  <si>
-    <t>Ghép nối các module để nhận được phần mềm hoàn chỉnh</t>
-  </si>
-  <si>
     <t>Chạy kiểm thử phần mềm kết quả</t>
   </si>
   <si>
@@ -104,16 +86,31 @@
     <t>1.10</t>
   </si>
   <si>
-    <t>Lào - Campuchia</t>
-  </si>
-  <si>
     <t>Xây dựng module thống kê hàng hóa trong kho</t>
+  </si>
+  <si>
+    <t>Trà</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
+  </si>
+  <si>
+    <t>Hương</t>
+  </si>
+  <si>
+    <t>Toàn</t>
+  </si>
+  <si>
+    <t>Sơn</t>
+  </si>
+  <si>
+    <t>Xây dựng modul hướng dẫn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:H18"/>
+  <dimension ref="C5:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +552,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
@@ -567,13 +564,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -583,11 +580,11 @@
         <v>1.2</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -597,11 +594,11 @@
         <v>1.3</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -611,11 +608,11 @@
         <v>1.4</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -625,11 +622,11 @@
         <v>1.5</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -639,11 +636,11 @@
         <v>1.6</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -653,53 +650,53 @@
         <v>1.7</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="3:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="12" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="3:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="12" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -711,14 +708,6 @@
       <c r="G17" s="17"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="14"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
